--- a/Health & Safety/Risk Assessments/Risk Assessment - 3D Printing.xlsx
+++ b/Health & Safety/Risk Assessments/Risk Assessment - 3D Printing.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -10,7 +10,7 @@
     <sheet name="3D Printing" sheetId="1" r:id="rId1"/>
     <sheet name="Risk Assessment Guide" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725" refMode="R1C1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -182,14 +182,14 @@
     <t>More official training required on using the printers</t>
   </si>
   <si>
-    <t>Warning signage needs to be placed near the machines</t>
+    <t>Need to make sure the warning sign on the machine remains visible and kept up to date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -613,33 +613,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,6 +736,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -767,6 +771,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -942,14 +947,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" customWidth="1"/>
@@ -958,27 +963,27 @@
     <col min="5" max="5" width="40.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="41" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="30">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>29</v>
       </c>
@@ -995,8 +1000,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30">
-      <c r="A3" s="38" t="s">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="37" t="s">
@@ -1008,12 +1013,12 @@
       <c r="D3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="38"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="42"/>
       <c r="B4" s="37" t="s">
         <v>36</v>
       </c>
@@ -1027,7 +1032,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45">
+    <row r="5" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
         <v>35</v>
       </c>
@@ -1044,8 +1049,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="37" t="s">
@@ -1061,8 +1066,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30">
-      <c r="A7" s="38"/>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
       <c r="B7" s="37" t="s">
         <v>40</v>
       </c>
@@ -1076,32 +1081,32 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38" t="s">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="42" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="37" t="s">
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30">
-      <c r="A10" s="38"/>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
       <c r="B10" s="37" t="s">
         <v>42</v>
       </c>
@@ -1115,7 +1120,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>30</v>
       </c>
@@ -1132,67 +1137,67 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30">
-      <c r="A12" s="38" t="s">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="42" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="37" t="s">
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
-      <c r="B14" s="46"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="36"/>
-      <c r="D14" s="46"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="36"/>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="47"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
       <c r="E15" s="36"/>
     </row>
-    <row r="16" spans="1:8">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-    </row>
-    <row r="17" spans="1:5">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -1201,15 +1206,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1217,14 +1222,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.140625" customWidth="1"/>
@@ -1236,13 +1241,13 @@
     <col min="9" max="9" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29.25" thickBot="1">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
       <c r="F1" s="3"/>
       <c r="G1" s="18" t="s">
         <v>7</v>
@@ -1254,15 +1259,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="24" thickBot="1">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="41" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="42"/>
+      <c r="D2" s="46"/>
       <c r="F2" s="21" t="s">
         <v>7</v>
       </c>
@@ -1276,7 +1281,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75">
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1302,7 +1307,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1328,7 +1333,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="19.5" thickBot="1">
+    <row r="5" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1342,7 +1347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75">
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F6" s="25" t="s">
         <v>20</v>
       </c>
@@ -1354,7 +1359,7 @@
       </c>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="1:9" ht="18.75">
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F7" s="27" t="s">
         <v>21</v>
       </c>
@@ -1366,7 +1371,7 @@
       </c>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="1:9" ht="18.75">
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F8" s="29" t="s">
         <v>22</v>
       </c>
